--- a/public/year6-spellbee/adverbs-synonymous-ending-in-ly.xlsx
+++ b/public/year6-spellbee/adverbs-synonymous-ending-in-ly.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>Adverb</t>
   </si>
@@ -194,6 +194,30 @@
   </si>
   <si>
     <t>The leader faced challenges indomitably.</t>
+  </si>
+  <si>
+    <t>Different Words</t>
+  </si>
+  <si>
+    <t>Absolutely, Resonantly, Revolutely, Resultantly</t>
+  </si>
+  <si>
+    <t>Sentence 3</t>
+  </si>
+  <si>
+    <t>Sentence 2</t>
+  </si>
+  <si>
+    <t>Sentence 1</t>
+  </si>
+  <si>
+    <t>She worked [BLANK] to achieve her goals.</t>
+  </si>
+  <si>
+    <t>The team moved forward [BLANK], determined to win the championship</t>
+  </si>
+  <si>
+    <t>He stood [BLANK] by his decision</t>
   </si>
 </sst>
 </file>
@@ -535,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C21"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,9 +570,13 @@
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" customWidth="1"/>
+    <col min="5" max="5" width="42.140625" customWidth="1"/>
+    <col min="6" max="6" width="41" customWidth="1"/>
+    <col min="7" max="7" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -558,8 +586,20 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -569,8 +609,20 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -581,7 +633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -592,7 +644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -603,7 +655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -614,7 +666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -625,7 +677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -636,7 +688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -647,7 +699,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -658,7 +710,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -669,7 +721,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -680,7 +732,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -691,7 +743,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -702,7 +754,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -713,7 +765,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
